--- a/projects/project-3/assignment/src/data/qudt-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/qudt-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,182 +589,182 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AngularAccelerationUnit</t>
+          <t>http://qudt.org/schema/qudt#AngleUnit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Angular Acceleration Unit</t>
+          <t>Angle unit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AccelerationUnit</t>
+          <t xml:space="preserve">description: All units relating to specificaiton of angles. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AngularMassUnit</t>
+          <t>http://qudt.org/schema/qudt#AngularAccelerationUnit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Angular Mass Unit</t>
+          <t>Angular Acceleration Unit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#AccelerationUnit</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AngularMomentumUnit</t>
+          <t>http://qudt.org/schema/qudt#AngularMassUnit</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Angular Momentum Unit</t>
+          <t>Angular Mass Unit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MomentumUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AngularVelocityUnit</t>
+          <t>http://qudt.org/schema/qudt#AngularMomentumUnit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Angular Velocity Unit</t>
+          <t>Angular Momentum Unit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
+          <t>http://qudt.org/schema/qudt#MomentumUnit</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AreaAngleUnit</t>
+          <t>http://qudt.org/schema/qudt#AngularVelocityUnit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Area Angle Unit</t>
+          <t>Angular Velocity Unit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AreaTemperatureUnit</t>
+          <t>http://qudt.org/schema/qudt#AreaAngleUnit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Area Temperature Unit</t>
+          <t>Area Angle Unit</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AreaThermalExpansionUnit</t>
+          <t>http://qudt.org/schema/qudt#AreaTemperatureUnit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Area Thermal Expansion Unit</t>
+          <t>Area Temperature Unit</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AreaTimeTemperatureUnit</t>
+          <t>http://qudt.org/schema/qudt#AreaThermalExpansionUnit</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Area Time Temperature Unit</t>
+          <t>Area Thermal Expansion Unit</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AreaUnit</t>
+          <t>http://qudt.org/schema/qudt#AreaTimeTemperatureUnit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Area Unit</t>
+          <t>Area Time Temperature Unit</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AtomicChargeUnit</t>
+          <t>http://qudt.org/schema/qudt#AreaUnit</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Atomic Charge Unit</t>
+          <t>Area Unit</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AtomicMassUnit</t>
+          <t>http://qudt.org/schema/qudt#AtomicChargeUnit</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Atomic Mass Unit</t>
+          <t>Atomic Charge Unit</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,539 +776,539 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>http://qudt.org/schema/qudt#AtomicMassUnit</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Atomic Mass Unit</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Atomic Physics Unit</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BaseUnit</t>
+          <t>http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Base Unit</t>
+          <t>Atomic Physics Unit</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BendingMomentOrTorqueUnit</t>
+          <t>http://qudt.org/schema/qudt#BaseUnit</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bending Moment Or Torque Unit</t>
+          <t>Base Unit</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BinaryPrefixUnit</t>
+          <t>http://qudt.org/schema/qudt#BaseUnit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Binary Prefix Unit</t>
+          <t>Base Unit</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PrefixUnit</t>
+          <t>description: A Base Unit is a unit adopted by convention for a base quantity.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>http://qudt.org/schema/qudt#BendingMomentOrTorqueUnit</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Biomedical Unit</t>
+          <t>Bending Moment Or Torque Unit</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CapacitanceUnit</t>
+          <t>http://qudt.org/schema/qudt#BinaryPrefixUnit</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Capacitance Unit</t>
+          <t>Binary Prefix Unit</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#PrefixUnit</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CatalyticActivityUnit</t>
+          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Catalytic Activity Unit</t>
+          <t>Biomedical Unit</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#CapacitanceUnit</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chemistry Unit</t>
+          <t>Capacitance Unit</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CoefficientOfHeatTransferUnit</t>
+          <t>http://qudt.org/schema/qudt#CatalyticActivityUnit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Coefficient Of Heat Transfer Unit</t>
+          <t>Catalytic Activity Unit</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CommunicationsUnit</t>
+          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Communications Unit</t>
+          <t>Chemistry Unit</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
+          <t>http://qudt.org/schema/qudt#CoefficientOfHeatTransferUnit</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Computing Unit</t>
+          <t>Coefficient Of Heat Transfer Unit</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ConcentrationUnit</t>
+          <t>http://qudt.org/schema/qudt#CommunicationsUnit</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Concentration Unit</t>
+          <t>Communications Unit</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ConductanceUnit</t>
+          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Conductance Unit</t>
+          <t>Computing Unit</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CountingUnit</t>
+          <t>http://qudt.org/schema/qudt#ConcentrationUnit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Counting Unit</t>
+          <t>Concentration Unit</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
+          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CountingUnit</t>
+          <t>http://qudt.org/schema/qudt#ConductanceUnit</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Counting Unit</t>
+          <t>Conductance Unit</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CurrencyUnit</t>
+          <t>http://qudt.org/schema/qudt#CountingUnit</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Currency Unit</t>
+          <t>Counting Unit</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#FinancialUnit</t>
+          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CurrentPerAngleUnit</t>
+          <t>http://qudt.org/schema/qudt#CountingUnit</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Current Per Angle Unit</t>
+          <t>Counting Unit</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CurvatureUnit</t>
+          <t>http://qudt.org/schema/qudt#CountingUnit</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Curvature Unit</t>
+          <t>Counting Unit</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>description: All units about counts. Examples are Atomic Number, Number, Number per Year, Percent and Sample per Second.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DataRateUnit</t>
+          <t>http://qudt.org/schema/qudt#CurrencyUnit</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Data Rate Unit</t>
+          <t>Currency Unit</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
+          <t>http://qudt.org/schema/qudt#FinancialUnit</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DataRateUnit</t>
+          <t>http://qudt.org/schema/qudt#CurrentPerAngleUnit</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Data Rate Unit</t>
+          <t>Current Per Angle Unit</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DecimalPrefixUnit</t>
+          <t>http://qudt.org/schema/qudt#CurvatureUnit</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Decimal Prefix Unit</t>
+          <t>Curvature Unit</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PrefixUnit</t>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DecimalPrefixUnit</t>
+          <t>http://qudt.org/schema/qudt#DataRateUnit</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Decimal Prefix Unit</t>
+          <t>Data Rate Unit</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIUnit</t>
+          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DerivedUnit</t>
+          <t>http://qudt.org/schema/qudt#DataRateUnit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Derived Unit</t>
+          <t>Data Rate Unit</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
+          <t>http://qudt.org/schema/qudt#DecimalPrefixUnit</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dimensionless Unit</t>
+          <t>Decimal Prefix Unit</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>http://qudt.org/schema/qudt#PrefixUnit</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DoseEquivalentUnit</t>
+          <t>http://qudt.org/schema/qudt#DecimalPrefixUnit</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dose Equivalent Unit</t>
+          <t>Decimal Prefix Unit</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
+          <t>http://qudt.org/schema/qudt#SIUnit</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DynamicViscosityUnit</t>
+          <t>http://qudt.org/schema/qudt#DerivedUnit</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dynamic Viscosity Unit</t>
+          <t>Derived Unit</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeAreaDensityUnit</t>
+          <t>http://qudt.org/schema/qudt#DerivedUnit</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Electric Charge Area Density Unit</t>
+          <t>Derived Unit</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
+          <t>description: A DerivedUnit is a type specification for units that are derived from other units.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
+          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Electric Charge Density Unit</t>
+          <t>Dimensionless Unit</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeLineDensityUnit</t>
+          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Electric Charge Line Density Unit</t>
+          <t>Dimensionless Unit</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
+          <t>description: A Dimensionless Unit is a quantity for which all the exponents of the factors corresponding to the base quantities in its quantity dimension are zero.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargePerAmountOfSubstanceUnit</t>
+          <t>http://qudt.org/schema/qudt#DoseEquivalentUnit</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Electric Charge Per Amount Of Substance Unit</t>
+          <t>Dose Equivalent Unit</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectrochemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeUnit</t>
+          <t>http://qudt.org/schema/qudt#DynamicViscosityUnit</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Electric Charge Unit</t>
+          <t>Dynamic Viscosity Unit</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeVolumeDensityUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricChargeAreaDensityUnit</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Electric Charge Volume Density Unit</t>
+          <t>Electric Charge Area Density Unit</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,12 +1320,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricCurrentDensityUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Electric Current Density Unit</t>
+          <t>Electric Charge Density Unit</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1337,46 +1337,46 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricCurrentUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricChargeLineDensityUnit</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Electric Current Unit</t>
+          <t>Electric Charge Line Density Unit</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricDipoleMomentUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricChargePerAmountOfSubstanceUnit</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Electric Dipole Moment Unit</t>
+          <t>Electric Charge Per Amount Of Substance Unit</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectrochemistryUnit</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricFieldStrengthUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricChargeUnit</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Electric Field Strength Unit</t>
+          <t>Electric Charge Unit</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,12 +1388,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricFluxDensityUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricChargeVolumeDensityUnit</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Electric Flux Density Unit</t>
+          <t>Electric Charge Volume Density Unit</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1405,12 +1405,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricFluxUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricCurrentDensityUnit</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Electric Flux Unit</t>
+          <t>Electric Current Density Unit</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1422,46 +1422,46 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>http://qudt.org/schema/qudt#ElectricCurrentUnit</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Electric Current Unit</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Electricity And Magnetism Unit</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectrochemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricDipoleMomentUnit</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Electrochemistry Unit</t>
+          <t>Electric Dipole Moment Unit</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectrochemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricFieldStrengthUnit</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Electrochemistry Unit</t>
+          <t>Electric Field Strength Unit</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1473,80 +1473,80 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#EnergyAndWorkPerMassAmountOfSubstance</t>
+          <t>http://qudt.org/schema/qudt#ElectricFluxDensityUnit</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Energy and work per mass amount of substance</t>
+          <t>Electric Flux Density Unit</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#EnergyAndWorkUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricFluxUnit</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Energy And Work Unit</t>
+          <t>Electric Flux Unit</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#EnergyDensityUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Energy Density Unit</t>
+          <t>Electricity And Magnetism Unit</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#EnergyPerAreaUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectrochemistryUnit</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Energy Per Area Unit</t>
+          <t>Electrochemistry Unit</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#EnergyPerElectricChargeUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectrochemistryUnit</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Energy per Electric Charge Unit</t>
+          <t>Electrochemistry Unit</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1558,896 +1558,896 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#EnumeratedValue</t>
+          <t>http://qudt.org/schema/qudt#EnergyAndWorkPerMassAmountOfSubstance</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Enumerated Value</t>
+          <t>Energy and work per mass amount of substance</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>http://www.linkedmodel.org/schema/dtype#EnumeratedValue</t>
+          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Enumeration</t>
+          <t>http://qudt.org/schema/qudt#EnergyAndWorkUnit</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Enumeration</t>
+          <t>Energy And Work Unit</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>http://www.linkedmodel.org/schema/dtype#Enumeration</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#EventUnit</t>
+          <t>http://qudt.org/schema/qudt#EnergyDensityUnit</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Event Unit</t>
+          <t>Energy Density Unit</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ExposureUnit</t>
+          <t>http://qudt.org/schema/qudt#EnergyPerAreaUnit</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Exposure Unit</t>
+          <t>Energy Per Area Unit</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#FinancialUnit</t>
+          <t>http://qudt.org/schema/qudt#EnergyPerElectricChargeUnit</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Financial Unit</t>
+          <t>Energy per Electric Charge Unit</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ForcePerElectricChargeUnit</t>
+          <t>http://qudt.org/schema/qudt#EnumeratedValue</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Force Per Electric Charge Unit</t>
+          <t>Enumerated Value</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://www.linkedmodel.org/schema/dtype#EnumeratedValue</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ForcePerLengthUnit</t>
+          <t>http://qudt.org/schema/qudt#EnumeratedValue</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Force Per Length Unit</t>
+          <t>Enumerated Value</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>description: This class is for all enumerated and/or coded values.  For example, it contains the dimension objects that are the basis elements in some abstract vector space associated with a quantity kind system. Another use is for the base dimensions for quantity systems. Each quantity kind system that defines a base set has a corresponding ordered enumeration whose elements are the dimension objects for the base quantity kinds. The order of the dimensions in the enumeration determines the canonical order of the basis elements in the corresponding abstract vector space.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ForceUnit</t>
+          <t>http://qudt.org/schema/qudt#Enumeration</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Force Unit</t>
+          <t>Enumeration</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://www.linkedmodel.org/schema/dtype#Enumeration</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#FrequencyUnit</t>
+          <t>http://qudt.org/schema/qudt#Enumeration</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Frequency Unit</t>
+          <t>Enumeration</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>description: This class is for describing the enumerations themselves. Having an enumerated value is one concept.  Having a way to descrive the set of enumerated valies is a distinct need. An enumeration is a collection of enumeration elements. In some cases it is necesaary to refer to the enumeration as opposed to one of its values.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#GravitationalAttractionUnit</t>
+          <t>http://qudt.org/schema/qudt#EventUnit</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Gravitational Attraction Unit</t>
+          <t>Event Unit</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#HeartRateUnit</t>
+          <t>http://qudt.org/schema/qudt#ExposureUnit</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Heart Rate Unit</t>
+          <t>Exposure Unit</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#HeatCapacityAndEntropyUnit</t>
+          <t>http://qudt.org/schema/qudt#FinancialUnit</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Heat Capacity And Entropy Unit</t>
+          <t>Financial Unit</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#HeatFlowRateUnit</t>
+          <t>http://qudt.org/schema/qudt#ForcePerElectricChargeUnit</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Heat Flow Rate Unit</t>
+          <t>Force Per Electric Charge Unit</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#HumanUnit</t>
+          <t>http://qudt.org/schema/qudt#ForcePerLengthUnit</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Human Unit</t>
+          <t>Force Per Length Unit</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#IlluminanceUnit</t>
+          <t>http://qudt.org/schema/qudt#ForceUnit</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Illuminance Unit</t>
+          <t>Force Unit</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#InductanceUnit</t>
+          <t>http://qudt.org/schema/qudt#FrequencyUnit</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Inductance Unit</t>
+          <t>Frequency Unit</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#InformationEntropyUnit</t>
+          <t>http://qudt.org/schema/qudt#GravitationalAttractionUnit</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Information Entropy Unit</t>
+          <t>Gravitational Attraction Unit</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#InformationEntropyUnit</t>
+          <t>http://qudt.org/schema/qudt#HeartRateUnit</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Information Entropy Unit</t>
+          <t>Heart Rate Unit</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LogarithmicUnit</t>
+          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#InformationEntropyUnit</t>
+          <t>http://qudt.org/schema/qudt#HeatCapacityAndEntropyUnit</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Information Entropy Unit</t>
+          <t>Heat Capacity And Entropy Unit</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#InverseAmountOfSubstanceUnit</t>
+          <t>http://qudt.org/schema/qudt#HeatFlowRateUnit</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Inverse Amount Of Substance Unit</t>
+          <t>Heat Flow Rate Unit</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#KinematicViscosityUnit</t>
+          <t>http://qudt.org/schema/qudt#HumanUnit</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kinematic Viscosity Unit</t>
+          <t>Human Unit</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LengthTemperatureTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#IlluminanceUnit</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Length Temperature Time Unit</t>
+          <t>Illuminance Unit</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LengthTemperatureUnit</t>
+          <t>http://qudt.org/schema/qudt#InductanceUnit</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Length Temperature Unit</t>
+          <t>Inductance Unit</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LengthUnit</t>
+          <t>http://qudt.org/schema/qudt#InformationEntropyUnit</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Length Unit</t>
+          <t>Information Entropy Unit</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LinearAccelerationUnit</t>
+          <t>http://qudt.org/schema/qudt#InformationEntropyUnit</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Linear Acceleration Unit</t>
+          <t>Information Entropy Unit</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AccelerationUnit</t>
+          <t>http://qudt.org/schema/qudt#LogarithmicUnit</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LinearEnergyTransferUnit</t>
+          <t>http://qudt.org/schema/qudt#InformationEntropyUnit</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Linear Energy Transfer Unit</t>
+          <t>Information Entropy Unit</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LinearMomentumUnit</t>
+          <t>http://qudt.org/schema/qudt#InverseAmountOfSubstanceUnit</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Linear Momentum Unit</t>
+          <t>Inverse Amount Of Substance Unit</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MomentumUnit</t>
+          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LinearThermalExpansionUnit</t>
+          <t>http://qudt.org/schema/qudt#KinematicViscosityUnit</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Linear Thermal Expansion Unit</t>
+          <t>Kinematic Viscosity Unit</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LinearVelocityUnit</t>
+          <t>http://qudt.org/schema/qudt#LengthTemperatureTimeUnit</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Linear Velocity Unit</t>
+          <t>Length Temperature Time Unit</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LogarithmicUnit</t>
+          <t>http://qudt.org/schema/qudt#LengthTemperatureUnit</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Logarithmic Unit</t>
+          <t>Length Temperature Unit</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LuminanceUnit</t>
+          <t>http://qudt.org/schema/qudt#LengthUnit</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Luminance Unit</t>
+          <t>Length Unit</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LuminousEfficacyUnit</t>
+          <t>http://qudt.org/schema/qudt#LinearAccelerationUnit</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Luminous Efficacy Unit</t>
+          <t>Linear Acceleration Unit</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>http://qudt.org/schema/qudt#AccelerationUnit</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LuminousEnergyUnit</t>
+          <t>http://qudt.org/schema/qudt#LinearEnergyTransferUnit</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Luminous Energy Unit</t>
+          <t>Linear Energy Transfer Unit</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LuminousFluxUnit</t>
+          <t>http://qudt.org/schema/qudt#LinearMomentumUnit</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Luminous Flux Unit</t>
+          <t>Linear Momentum Unit</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>http://qudt.org/schema/qudt#MomentumUnit</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LuminousIntensityUnit</t>
+          <t>http://qudt.org/schema/qudt#LinearThermalExpansionUnit</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Luminous Intensity Unit</t>
+          <t>Linear Thermal Expansion Unit</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MagneticFieldStrengthUnit</t>
+          <t>http://qudt.org/schema/qudt#LinearVelocityUnit</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Magnetic Field Strength Unit</t>
+          <t>Linear Velocity Unit</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MagneticFluxDensityUnit</t>
+          <t>http://qudt.org/schema/qudt#LogarithmicUnit</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Magnetic Flux Density Unit</t>
+          <t>Logarithmic Unit</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MagneticFluxUnit</t>
+          <t>http://qudt.org/schema/qudt#LuminanceUnit</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Magnetic Flux Unit</t>
+          <t>Luminance Unit</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MagnetomotiveForceUnit</t>
+          <t>http://qudt.org/schema/qudt#LuminousEfficacyUnit</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Magnetomotive Force Unit</t>
+          <t>Luminous Efficacy Unit</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MassAmountOfSubstanceTemperatureUnit</t>
+          <t>http://qudt.org/schema/qudt#LuminousEnergyUnit</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Mass Amount Of Substance Temperature Unit</t>
+          <t>Luminous Energy Unit</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MassAmountOfSubstanceUnit</t>
+          <t>http://qudt.org/schema/qudt#LuminousFluxUnit</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mass Amount Of Substance Unit</t>
+          <t>Luminous Flux Unit</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MassPerAreaUnit</t>
+          <t>http://qudt.org/schema/qudt#LuminousIntensityUnit</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mass Per Area Unit</t>
+          <t>Luminous Intensity Unit</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MassPerLengthUnit</t>
+          <t>http://qudt.org/schema/qudt#MagneticFieldStrengthUnit</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mass Per Length Unit</t>
+          <t>Magnetic Field Strength Unit</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MassPerTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#MagneticFluxDensityUnit</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mass Per Time Unit</t>
+          <t>Magnetic Flux Density Unit</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MassPerVolumeUnit</t>
+          <t>http://qudt.org/schema/qudt#MagneticFluxUnit</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Mass Per Volume Unit</t>
+          <t>Magnetic Flux Unit</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MassTemperatureUnit</t>
+          <t>http://qudt.org/schema/qudt#MagnetomotiveForceUnit</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Mass Temperature Unit</t>
+          <t>Magnetomotive Force Unit</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MassUnit</t>
+          <t>http://qudt.org/schema/qudt#MassAmountOfSubstanceTemperatureUnit</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Mass Unit</t>
+          <t>Mass Amount Of Substance Temperature Unit</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#MassAmountOfSubstanceUnit</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mechanics Unit</t>
+          <t>Mass Amount Of Substance Unit</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MicrobialFormationUnit</t>
+          <t>http://qudt.org/schema/qudt#MassPerAreaUnit</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Microbial Formation Unit</t>
+          <t>Mass Per Area Unit</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MolalConcentrationUnit</t>
+          <t>http://qudt.org/schema/qudt#MassPerLengthUnit</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Molal Concentration Unit</t>
+          <t>Mass Per Length Unit</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ConcentrationUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MolarConcentrationUnit</t>
+          <t>http://qudt.org/schema/qudt#MassPerTimeUnit</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Molar Concentration Unit</t>
+          <t>Mass Per Time Unit</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ConcentrationUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MolarEnergyUnit</t>
+          <t>http://qudt.org/schema/qudt#MassPerVolumeUnit</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Molar Energy Unit</t>
+          <t>Mass Per Volume Unit</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MolarHeatCapacityUnit</t>
+          <t>http://qudt.org/schema/qudt#MassTemperatureUnit</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Molar Heat Capacity Unit</t>
+          <t>Mass Temperature Unit</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2459,12 +2459,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MomentumUnit</t>
+          <t>http://qudt.org/schema/qudt#MassUnit</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Momentum Unit</t>
+          <t>Mass Unit</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2476,12 +2476,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Non SI Unit</t>
+          <t>Mechanics Unit</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2493,182 +2493,182 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
+          <t>http://qudt.org/schema/qudt#MicrobialFormationUnit</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Non SI Unit</t>
+          <t>Microbial Formation Unit</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIUnit</t>
+          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NotUsedWithSIUnit</t>
+          <t>http://qudt.org/schema/qudt#MolalConcentrationUnit</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Not Used With SI Unit</t>
+          <t>Molal Concentration Unit</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
+          <t>http://qudt.org/schema/qudt#ConcentrationUnit</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NotUsedWithSIUnit</t>
+          <t>http://qudt.org/schema/qudt#MolarConcentrationUnit</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Not Used With SI Unit</t>
+          <t>Molar Concentration Unit</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#UsedWithSIUnit</t>
+          <t>http://qudt.org/schema/qudt#ConcentrationUnit</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#OpticsUnit</t>
+          <t>http://qudt.org/schema/qudt#MolarEnergyUnit</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Light Unit</t>
+          <t>Molar Energy Unit</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PermeabilityUnit</t>
+          <t>http://qudt.org/schema/qudt#MolarHeatCapacityUnit</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Permeability Unit</t>
+          <t>Molar Heat Capacity Unit</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PermittivityUnit</t>
+          <t>http://qudt.org/schema/qudt#MomentumUnit</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Permittivity Unit</t>
+          <t>Momentum Unit</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Photometry Unit</t>
+          <t>Non SI Unit</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#OpticsUnit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Physical Unit</t>
+          <t>Non SI Unit</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
+          <t>http://qudt.org/schema/qudt#SIUnit</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PlaneAngleUnit</t>
+          <t>http://qudt.org/schema/qudt#NotUsedWithSIUnit</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Plane Angle Unit</t>
+          <t>Not Used With SI Unit</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AngleUnit</t>
+          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PowerPerAreaUnit</t>
+          <t>http://qudt.org/schema/qudt#NotUsedWithSIUnit</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Power Per Area Unit</t>
+          <t>Not Used With SI Unit</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#UsedWithSIUnit</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PowerPerElectricChargeUnit</t>
+          <t>http://qudt.org/schema/qudt#OpticsUnit</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Energy per Electric Charge Unit</t>
+          <t>Light Unit</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2680,386 +2680,386 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PowerUnit</t>
+          <t>http://qudt.org/schema/qudt#PermeabilityUnit</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Power Unit</t>
+          <t>Permeability Unit</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PrefixUnit</t>
+          <t>http://qudt.org/schema/qudt#PermittivityUnit</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Prefix Unit</t>
+          <t>Permittivity Unit</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PressureOrStressRateUnit</t>
+          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Pressure or stress rate</t>
+          <t>Photometry Unit</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#OpticsUnit</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PressureOrStressUnit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pressure Or Stress Unit</t>
+          <t>Physical Unit</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#QuantityKindCategory</t>
+          <t>http://qudt.org/schema/qudt#PlaneAngleUnit</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Quantity Kind Category</t>
+          <t>Plane Angle Unit</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Class</t>
+          <t>http://qudt.org/schema/qudt#AngleUnit</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RF-PowerUnit</t>
+          <t>http://qudt.org/schema/qudt#PowerPerAreaUnit</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RF-Power Unit</t>
+          <t>Power Per Area Unit</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CommunicationsUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadianceUnit</t>
+          <t>http://qudt.org/schema/qudt#PowerPerElectricChargeUnit</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Radiance Unit</t>
+          <t>Energy per Electric Charge Unit</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiometryUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiantIntensityUnit</t>
+          <t>http://qudt.org/schema/qudt#PowerUnit</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Radiant Intensity Unit</t>
+          <t>Power Unit</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiometryUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
+          <t>http://qudt.org/schema/qudt#PrefixUnit</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Radiology Unit</t>
+          <t>Prefix Unit</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiometryUnit</t>
+          <t>http://qudt.org/schema/qudt#PrefixUnit</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Radiometry Unit</t>
+          <t>Prefix Unit</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#OpticsUnit</t>
+          <t>description: Prefixes are either binary or decimal.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RateOfReturnUnit</t>
+          <t>http://qudt.org/schema/qudt#PressureOrStressRateUnit</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Rate Of Return Unit</t>
+          <t>Pressure or stress rate</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#FinancialUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResistanceUnit</t>
+          <t>http://qudt.org/schema/qudt#PressureOrStressUnit</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Resistance Unit</t>
+          <t>Pressure Or Stress Unit</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>http://qudt.org/schema/qudt#QuantityKindCategory</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Resource Unit</t>
+          <t>Quantity Kind Category</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>http://www.w3.org/2002/07/owl#Class</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RespiratoryRateUnit</t>
+          <t>http://qudt.org/schema/qudt#RF-PowerUnit</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Respiratory Rate Unit</t>
+          <t>RF-Power Unit</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>http://qudt.org/schema/qudt#CommunicationsUnit</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIBaseUnit</t>
+          <t>http://qudt.org/schema/qudt#RadianceUnit</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SI Base Unit</t>
+          <t>Radiance Unit</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BaseUnit</t>
+          <t>http://qudt.org/schema/qudt#RadiometryUnit</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIBaseUnit</t>
+          <t>http://qudt.org/schema/qudt#RadiantIntensityUnit</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SI Base Unit</t>
+          <t>Radiant Intensity Unit</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIDerivedUnit</t>
+          <t>http://qudt.org/schema/qudt#RadiometryUnit</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIBaseUnit</t>
+          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SI Base Unit</t>
+          <t>Radiology Unit</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIUnit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIDerivedUnit</t>
+          <t>http://qudt.org/schema/qudt#RadiometryUnit</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SI Derived Unit</t>
+          <t>Radiometry Unit</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DerivedUnit</t>
+          <t>http://qudt.org/schema/qudt#OpticsUnit</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIDerivedUnit</t>
+          <t>http://qudt.org/schema/qudt#RateOfReturnUnit</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SI Derived Unit</t>
+          <t>Rate Of Return Unit</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIBaseUnit</t>
+          <t>http://qudt.org/schema/qudt#FinancialUnit</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIDerivedUnit</t>
+          <t>http://qudt.org/schema/qudt#ResistanceUnit</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SI Derived Unit</t>
+          <t>Resistance Unit</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIUnit</t>
+          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIUnit</t>
+          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SI Unit</t>
+          <t>Resource Unit</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
+          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Science And Engineering Unit</t>
+          <t>Resource Unit</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>description: A Resource Unit is a unit for measuring the amount of various types of resources.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SerumOrPlasmaLevelUnit</t>
+          <t>http://qudt.org/schema/qudt#RespiratoryRateUnit</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Serum Or Plasma Level Unit</t>
+          <t>Respiratory Rate Unit</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3071,233 +3071,233 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SignalDetectionThresholdUnit</t>
+          <t>http://qudt.org/schema/qudt#SIBaseUnit</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Signal Detection Threshold Unit</t>
+          <t>SI Base Unit</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CommunicationsUnit</t>
+          <t>http://qudt.org/schema/qudt#BaseUnit</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SolidAngleUnit</t>
+          <t>http://qudt.org/schema/qudt#SIBaseUnit</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Solid Angle Unit</t>
+          <t>SI Base Unit</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AngleUnit</t>
+          <t>http://qudt.org/schema/qudt#SIDerivedUnit</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#SIBaseUnit</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Space And Time Unit</t>
+          <t>SI Base Unit</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>http://qudt.org/schema/qudt#SIUnit</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpecificEnergyUnit</t>
+          <t>http://qudt.org/schema/qudt#SIDerivedUnit</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Specific Energy Unit</t>
+          <t>SI Derived Unit</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#DerivedUnit</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpecificHeatCapacityUnit</t>
+          <t>http://qudt.org/schema/qudt#SIDerivedUnit</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Specific Heat Capacity Unit</t>
+          <t>SI Derived Unit</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#SIBaseUnit</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpecificHeatPressureUnit</t>
+          <t>http://qudt.org/schema/qudt#SIDerivedUnit</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Specific Heat Pressure Unit</t>
+          <t>SI Derived Unit</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#SIUnit</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpecificHeatVolumeUnit</t>
+          <t>http://qudt.org/schema/qudt#SIUnit</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Specific Heat Volume Unit</t>
+          <t>SI Unit</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SystemOfNaturalUnits</t>
+          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>System of natural units</t>
+          <t>Science And Engineering Unit</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SystemOfUnits</t>
+          <t>http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#TemperaturePerTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#SerumOrPlasmaLevelUnit</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Temperature per time unit</t>
+          <t>Serum Or Plasma Level Unit</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#TemperatureUnit</t>
+          <t>http://qudt.org/schema/qudt#SignalDetectionThresholdUnit</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Temperature Unit</t>
+          <t>Signal Detection Threshold Unit</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#CommunicationsUnit</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalConductivityUnit</t>
+          <t>http://qudt.org/schema/qudt#SolidAngleUnit</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Thermal Conductivity Unit</t>
+          <t>Solid Angle Unit</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#AngleUnit</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalDiffusivityUnit</t>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Thermal Diffusivity Unit</t>
+          <t>Space And Time Unit</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalEnergyLengthUnit</t>
+          <t>http://qudt.org/schema/qudt#SpecificEnergyUnit</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Thermal Energy Length Unit</t>
+          <t>Specific Energy Unit</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalEnergyUnit</t>
+          <t>http://qudt.org/schema/qudt#SpecificHeatCapacityUnit</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Thermal Energy Unit</t>
+          <t>Specific Heat Capacity Unit</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3309,12 +3309,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
+          <t>http://qudt.org/schema/qudt#SpecificHeatPressureUnit</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Thermal Expansion Unit</t>
+          <t>Specific Heat Pressure Unit</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3326,12 +3326,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalInsulanceUnit</t>
+          <t>http://qudt.org/schema/qudt#SpecificHeatVolumeUnit</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Thermal Insulance Unit</t>
+          <t>Specific Heat Volume Unit</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3343,250 +3343,250 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalResistanceUnit</t>
+          <t>http://qudt.org/schema/qudt#SystemOfNaturalUnits</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Thermal Resistance Unit</t>
+          <t>System of natural units</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#SystemOfUnits</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalResistivityUnit</t>
+          <t>http://qudt.org/schema/qudt#SystemOfNaturalUnits</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Thermal Resistivity Unit</t>
+          <t>System of natural units</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>description: In physics, natural units are physical units of measurement based only on universal physical constants. For example the elementary charge e is a natural unit of electric charge, or the speed of light c is a natural unit of speed. A purely natural system of units is defined in such a way that some set of selected universal physical constants are normalized to unity; that is, their numerical values in terms of these units become exactly 1. Examples are Planck Units and Atomic Units. Atomic units (au or a.u.) form a system of natural units which is especially convenient for atomic physics calculations. There are two different kinds of atomic units, which one might name Hartree atomic units[1] and Rydberg atomic units, which differ in the choice of the unit of mass and charge. Planck units are unique among systems of natural units, because they are not defined in terms of properties of any prototype, physical object, or even elementary particle.  [Wikipeda]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>http://qudt.org/schema/qudt#SystemOfUnits</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Thermodynamics Unit</t>
+          <t>System of Units</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>description: A system of units is a set of units which are chosen as the reference scales for some set of quantity kinds together with the definitions of each unit. Units may be defined by experimental observation or by proportion to another unit not included in the system. If the unit system is explicitly associated with a quantity kind system, then the unit system must define at least one unit for each quantity kind.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThrustToMassRatioUnit</t>
+          <t>http://qudt.org/schema/qudt#TemperaturePerTimeUnit</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Thrust To Mass Ratio Unit</t>
+          <t>Temperature per time unit</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#TimeAreaUnit</t>
+          <t>http://qudt.org/schema/qudt#TemperatureUnit</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Time Area Unit</t>
+          <t>Temperature Unit</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#TimeSquaredUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermalConductivityUnit</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Time Squared Unit</t>
+          <t>Thermal Conductivity Unit</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#TimeUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermalDiffusivityUnit</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Time Unit</t>
+          <t>Thermal Diffusivity Unit</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#TurbidityUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermalEnergyLengthUnit</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Turbidity Unit</t>
+          <t>Thermal Energy Length Unit</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>http://qudt.org/schema/qudt#ThermalEnergyUnit</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>Thermal Energy Unit</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#UsedWithSIUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Used With SI Unit</t>
+          <t>Thermal Expansion Unit</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#UsedWithSIUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermalInsulanceUnit</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Used With SI Unit</t>
+          <t>Thermal Insulance Unit</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NotUsedWithSIUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermalResistanceUnit</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Velocity Unit</t>
+          <t>Thermal Resistance Unit</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VideoFrameRateUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermalResistivityUnit</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Video Frame Rate Unit</t>
+          <t>Thermal Resistivity Unit</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VolumePerMassUnit</t>
+          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Volume per mass unit</t>
+          <t>Thermodynamics Unit</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VolumePerTimeSquaredUnit</t>
+          <t>http://qudt.org/schema/qudt#ThrustToMassRatioUnit</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Volume per Time Squared Unit</t>
+          <t>Thrust To Mass Ratio Unit</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3598,12 +3598,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VolumePerTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#TimeAreaUnit</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Volume Per Time Unit</t>
+          <t>Time Area Unit</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3615,32 +3615,236 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VolumeThermalExpansionUnit</t>
+          <t>http://qudt.org/schema/qudt#TimeSquaredUnit</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Volume Thermal Expansion Unit</t>
+          <t>Time Squared Unit</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>http://qudt.org/schema/qudt#TimeUnit</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Time Unit</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#TurbidityUnit</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Turbidity Unit</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#Unit</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2002/07/owl#Thing</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#Unit</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>description: A unit of measure, or unit, is a particular quantity value that has been chosen as a scale for measuring other quantities the same kind (more generally of equivalent dimension). For example, the meter is a quantity of length that has been rigorously defined and standardized by the BIPM (International Board of Weights and Measures). Any measurement of the length can be expressed as a number multiplied by the unit meter. More formally, the value of a physical quantity Q with respect to a unit (U) is expressed as the scalar multiple of a real number (n) and U, as  Q = nU.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#UsedWithSIUnit</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Used With SI Unit</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#UsedWithSIUnit</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Used With SI Unit</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#NotUsedWithSIUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Velocity Unit</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#VideoFrameRateUnit</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Video Frame Rate Unit</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#VolumePerMassUnit</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Volume per mass unit</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#VolumePerTimeSquaredUnit</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Volume per Time Squared Unit</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#VolumePerTimeUnit</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Volume Per Time Unit</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#VolumeThermalExpansionUnit</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Volume Thermal Expansion Unit</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
           <t>http://qudt.org/schema/qudt#VolumeUnit</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Volume Unit</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>

--- a/projects/project-3/assignment/src/data/qudt-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/qudt-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#RadiologyUnit</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#RadiologyUnit</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#RadiologyUnit</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
+          <t xml:space="preserve">Description: All units relating to specificaiton of angles. </t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#DimensionlessUnit</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">description: All units relating to specificaiton of angles. </t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AccelerationUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#AccelerationUnit</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MomentumUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MomentumUnit</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#VelocityUnit</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>Description: A Base Unit is a unit adopted by convention for a base quantity.</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>description: A Base Unit is a unit adopted by convention for a base quantity.</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PrefixUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PrefixUnit</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
+          <t>Description: All units about counts. Examples are Atomic Number, Number, Number per Year, Percent and Sample per Second.</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#DimensionlessUnit</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>description: All units about counts. Examples are Atomic Number, Number, Number per Year, Percent and Sample per Second.</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#FinancialUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#FinancialUnit</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ComputingUnit</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PrefixUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PrefixUnit</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SIUnit</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>Description: A DerivedUnit is a type specification for units that are derived from other units.</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>description: A DerivedUnit is a type specification for units that are derived from other units.</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>Description: A Dimensionless Unit is a quantity for which all the exponents of the factors corresponding to the base quantities in its quantity dimension are zero.</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>description: A Dimensionless Unit is a quantity for which all the exponents of the factors corresponding to the base quantities in its quantity dimension are zero.</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#RadiologyUnit</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectrochemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectrochemistryUnit</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricChargeDensityUnit</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>http://www.linkedmodel.org/schema/dtype#EnumeratedValue</t>
+          <t>Description: This class is for all enumerated and/or coded values.  For example, it contains the dimension objects that are the basis elements in some abstract vector space associated with a quantity kind system. Another use is for the base dimensions for quantity systems. Each quantity kind system that defines a base set has a corresponding ordered enumeration whose elements are the dimension objects for the base quantity kinds. The order of the dimensions in the enumeration determines the canonical order of the basis elements in the corresponding abstract vector space.</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>description: This class is for all enumerated and/or coded values.  For example, it contains the dimension objects that are the basis elements in some abstract vector space associated with a quantity kind system. Another use is for the base dimensions for quantity systems. Each quantity kind system that defines a base set has a corresponding ordered enumeration whose elements are the dimension objects for the base quantity kinds. The order of the dimensions in the enumeration determines the canonical order of the basis elements in the corresponding abstract vector space.</t>
+          <t>SubClassOf: http://www.linkedmodel.org/schema/dtype#EnumeratedValue</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>http://www.linkedmodel.org/schema/dtype#Enumeration</t>
+          <t>Description: This class is for describing the enumerations themselves. Having an enumerated value is one concept.  Having a way to descrive the set of enumerated valies is a distinct need. An enumeration is a collection of enumeration elements. In some cases it is necesaary to refer to the enumeration as opposed to one of its values.</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>description: This class is for describing the enumerations themselves. Having an enumerated value is one concept.  Having a way to descrive the set of enumerated valies is a distinct need. An enumeration is a collection of enumeration elements. In some cases it is necesaary to refer to the enumeration as opposed to one of its values.</t>
+          <t>SubClassOf: http://www.linkedmodel.org/schema/dtype#Enumeration</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiologyUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#RadiologyUnit</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#BiomedicalUnit</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ComputingUnit</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#LogarithmicUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#LogarithmicUnit</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ResourceUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ResourceUnit</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AccelerationUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#AccelerationUnit</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#AtomicPhysicsUnit</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MomentumUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MomentumUnit</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#VelocityUnit</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhotometryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhotometryUnit</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#BiomedicalUnit</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ConcentrationUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ConcentrationUnit</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ConcentrationUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ConcentrationUnit</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ChemistryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ChemistryUnit</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>DisjointWith: http://qudt.org/schema/qudt#SIUnit</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
+          <t>DisjointWith: http://qudt.org/schema/qudt#UsedWithSIUnit</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#UsedWithSIUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#NonSIUnit</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#OpticsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#OpticsUnit</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ScienceAndEngineeringUnit</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AngleUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#AngleUnit</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DimensionlessUnit</t>
+          <t>Description: Prefixes are either binary or decimal.</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>description: Prefixes are either binary or decimal.</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#DimensionlessUnit</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Class</t>
+          <t>SubClassOf: http://www.w3.org/2002/07/owl#Class</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CommunicationsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#CommunicationsUnit</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiometryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#RadiometryUnit</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#RadiometryUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#RadiometryUnit</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#OpticsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#OpticsUnit</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#FinancialUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#FinancialUnit</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ElectricityAndMagnetismUnit</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>Description: A Resource Unit is a unit for measuring the amount of various types of resources.</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>description: A Resource Unit is a unit for measuring the amount of various types of resources.</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#BiomedicalUnit</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BaseUnit</t>
+          <t>DisjointWith: http://qudt.org/schema/qudt#SIDerivedUnit</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIDerivedUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#BaseUnit</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SIUnit</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#DerivedUnit</t>
+          <t>DisjointWith: http://qudt.org/schema/qudt#SIBaseUnit</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIBaseUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#DerivedUnit</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SIUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SIUnit</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#Unit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#BiomedicalUnit</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#CommunicationsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#CommunicationsUnit</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#AngleUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#AngleUnit</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SystemOfUnits</t>
+          <t>Description: In physics, natural units are physical units of measurement based only on universal physical constants. For example the elementary charge e is a natural unit of electric charge, or the speed of light c is a natural unit of speed. A purely natural system of units is defined in such a way that some set of selected universal physical constants are normalized to unity; that is, their numerical values in terms of these units become exactly 1. Examples are Planck Units and Atomic Units. Atomic units (au or a.u.) form a system of natural units which is especially convenient for atomic physics calculations. There are two different kinds of atomic units, which one might name Hartree atomic units[1] and Rydberg atomic units, which differ in the choice of the unit of mass and charge. Planck units are unique among systems of natural units, because they are not defined in terms of properties of any prototype, physical object, or even elementary particle.  [Wikipeda]</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>description: In physics, natural units are physical units of measurement based only on universal physical constants. For example the elementary charge e is a natural unit of electric charge, or the speed of light c is a natural unit of speed. A purely natural system of units is defined in such a way that some set of selected universal physical constants are normalized to unity; that is, their numerical values in terms of these units become exactly 1. Examples are Planck Units and Atomic Units. Atomic units (au or a.u.) form a system of natural units which is especially convenient for atomic physics calculations. There are two different kinds of atomic units, which one might name Hartree atomic units[1] and Rydberg atomic units, which differ in the choice of the unit of mass and charge. Planck units are unique among systems of natural units, because they are not defined in terms of properties of any prototype, physical object, or even elementary particle.  [Wikipeda]</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SystemOfUnits</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>description: A system of units is a set of units which are chosen as the reference scales for some set of quantity kinds together with the definitions of each unit. Units may be defined by experimental observation or by proportion to another unit not included in the system. If the unit system is explicitly associated with a quantity kind system, then the unit system must define at least one unit for each quantity kind.</t>
+          <t>Description: A system of units is a set of units which are chosen as the reference scales for some set of quantity kinds together with the definitions of each unit. Units may be defined by experimental observation or by proportion to another unit not included in the system. If the unit system is explicitly associated with a quantity kind system, then the unit system must define at least one unit for each quantity kind.</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermodynamicsUnit</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#PhysicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#PhysicalUnit</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#BiomedicalUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#BiomedicalUnit</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>Description: A unit of measure, or unit, is a particular quantity value that has been chosen as a scale for measuring other quantities the same kind (more generally of equivalent dimension). For example, the meter is a quantity of length that has been rigorously defined and standardized by the BIPM (International Board of Weights and Measures). Any measurement of the length can be expressed as a number multiplied by the unit meter. More formally, the value of a physical quantity Q with respect to a unit (U) is expressed as the scalar multiple of a real number (n) and U, as  Q = nU.</t>
         </is>
       </c>
     </row>
@@ -3693,24 +3693,24 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>description: A unit of measure, or unit, is a particular quantity value that has been chosen as a scale for measuring other quantities the same kind (more generally of equivalent dimension). For example, the meter is a quantity of length that has been rigorously defined and standardized by the BIPM (International Board of Weights and Measures). Any measurement of the length can be expressed as a number multiplied by the unit meter. More formally, the value of a physical quantity Q with respect to a unit (U) is expressed as the scalar multiple of a real number (n) and U, as  Q = nU.</t>
+          <t>Range of: http://qudt.org/schema/qudt#unit</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#UsedWithSIUnit</t>
+          <t>http://qudt.org/schema/qudt#Unit</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Used With SI Unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NonSIUnit</t>
+          <t>SubClassOf: http://www.w3.org/2002/07/owl#Thing</t>
         </is>
       </c>
     </row>
@@ -3727,126 +3727,143 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#NotUsedWithSIUnit</t>
+          <t>DisjointWith: http://qudt.org/schema/qudt#NotUsedWithSIUnit</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
+          <t>http://qudt.org/schema/qudt#UsedWithSIUnit</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Velocity Unit</t>
+          <t>Used With SI Unit</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#NonSIUnit</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VideoFrameRateUnit</t>
+          <t>http://qudt.org/schema/qudt#VelocityUnit</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Video Frame Rate Unit</t>
+          <t>Velocity Unit</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ComputingUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VolumePerMassUnit</t>
+          <t>http://qudt.org/schema/qudt#VideoFrameRateUnit</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Volume per mass unit</t>
+          <t>Video Frame Rate Unit</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ComputingUnit</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VolumePerTimeSquaredUnit</t>
+          <t>http://qudt.org/schema/qudt#VolumePerMassUnit</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Volume per Time Squared Unit</t>
+          <t>Volume per mass unit</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#MechanicsUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VolumePerTimeUnit</t>
+          <t>http://qudt.org/schema/qudt#VolumePerTimeSquaredUnit</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Volume Per Time Unit</t>
+          <t>Volume per Time Squared Unit</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#MechanicsUnit</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#VolumeThermalExpansionUnit</t>
+          <t>http://qudt.org/schema/qudt#VolumePerTimeUnit</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Volume Thermal Expansion Unit</t>
+          <t>Volume Per Time Unit</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
+          <t>http://qudt.org/schema/qudt#VolumeThermalExpansionUnit</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Volume Thermal Expansion Unit</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://qudt.org/schema/qudt#ThermalExpansionUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
           <t>http://qudt.org/schema/qudt#VolumeUnit</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Volume Unit</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://qudt.org/schema/qudt#SpaceAndTimeUnit</t>
         </is>
       </c>
     </row>
